--- a/artfynd/A 41519-2023 artfynd.xlsx
+++ b/artfynd/A 41519-2023 artfynd.xlsx
@@ -2286,7 +2286,7 @@
         <v>130975579</v>
       </c>
       <c r="B16" t="n">
-        <v>57874</v>
+        <v>57878</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>130975541</v>
       </c>
       <c r="B17" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
